--- a/New folder/personality_analysis/allsubj_personality(2).xlsx
+++ b/New folder/personality_analysis/allsubj_personality(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27KarlC\Downloads\NeuroIntern\New folder\personality_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6A082A-5B2B-4BAF-AFF7-ED79E008C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF84D94-FA1D-412D-82D1-45AFC9CE2ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="1" activeTab="6" xr2:uid="{341AB4C6-F089-4878-A1EB-5ABE8971A52B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="1" activeTab="1" xr2:uid="{341AB4C6-F089-4878-A1EB-5ABE8971A52B}"/>
   </bookViews>
   <sheets>
     <sheet name="sublist" sheetId="1" r:id="rId1"/>
@@ -11548,8 +11548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31D334-2557-4B7C-8D1D-715E8462CE47}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC88"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -19568,7 +19568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02E4F39-8EC1-43EF-A9F8-DDFAE513D504}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="O16" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:AC88"/>
     </sheetView>
   </sheetViews>
@@ -27587,8 +27587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2BB86A-19EC-44D9-96D7-014730F6EE8D}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -35607,8 +35607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5657AF57-01F3-4543-A003-2BAAA89ADE33}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView topLeftCell="K9" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -36233,7 +36233,7 @@
         <v>-4</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f>S11-M11</f>
         <v>0</v>
       </c>
       <c r="G11">
@@ -53064,7 +53064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFDE007-FC8A-4DAA-A553-D80096B88B86}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
